--- a/project.xlsx
+++ b/project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <r>
       <t>this</t>
@@ -98,9 +98,6 @@
     <t>fatherName,</t>
   </si>
   <si>
-    <t>        fatherContactNo,</t>
-  </si>
-  <si>
     <t>        motherName,</t>
   </si>
   <si>
@@ -143,18 +140,12 @@
     <t>fatherContactNo</t>
   </si>
   <si>
-    <t>fatherPhoto</t>
-  </si>
-  <si>
     <t>motherName</t>
   </si>
   <si>
     <t>motherContactNo</t>
   </si>
   <si>
-    <t>motherPhoto</t>
-  </si>
-  <si>
     <t>parentAddress</t>
   </si>
   <si>
@@ -168,6 +159,63 @@
   </si>
   <si>
     <t>parentState</t>
+  </si>
+  <si>
+    <t>registrationNo</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>admissionDate</t>
+  </si>
+  <si>
+    <t>admissionType</t>
+  </si>
+  <si>
+    <t>feeCategory</t>
+  </si>
+  <si>
+    <t>busService</t>
+  </si>
+  <si>
+    <t>hostel</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>registrationFees</t>
   </si>
 </sst>
 </file>
@@ -214,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -224,6 +272,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,22 +577,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,11 +606,11 @@
         <v>registrationNo </v>
       </c>
       <c r="D1" t="str">
-        <f>C5</f>
-        <v>dob </v>
+        <f>CONCATENATE(C1)</f>
+        <v>registrationNo </v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -569,14 +621,18 @@
       </c>
       <c r="I1" t="str">
         <f>CONCATENATE("document.getElementById(","'",D1,"'",").value = students[i].",D1)</f>
-        <v>document.getElementById('dob ').value = students[i].dob </v>
+        <v>document.getElementById('registrationNo ').value = students[i].registrationNo </v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE("students[i].", D1, " =  ", "document.getElementById(","'",,REPLACE(D1,LEN(D1),1,""),"'",").value")</f>
-        <v>students[i].dob  =  document.getElementById('dob').value</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>students[i].registrationNo  =  document.getElementById('registrationNo').value</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE(D1, "VARCHAR(255)")</f>
+        <v>registrationNo VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -593,7 +649,7 @@
         <v>category </v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <f>G1+1</f>
@@ -611,8 +667,12 @@
         <f t="shared" ref="J2:J32" si="5">CONCATENATE("students[i].", D2, " =  ", "document.getElementById(","'",,REPLACE(D2,LEN(D2),1,""),"'",").value")</f>
         <v>students[i].category  =  document.getElementById('category').value</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K32" si="6">CONCATENATE(D2, "VARCHAR(255)")</f>
+        <v>category VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -629,10 +689,10 @@
         <v>division </v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G32" si="6">G2+1</f>
+        <f t="shared" ref="G3:G32" si="7">G2+1</f>
         <v>3</v>
       </c>
       <c r="H3" t="str">
@@ -647,8 +707,12 @@
         <f t="shared" si="5"/>
         <v>students[i].division  =  document.getElementById('division').value</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f t="shared" si="6"/>
+        <v>division VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -665,10 +729,10 @@
         <v>name </v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H4" t="str">
@@ -683,8 +747,12 @@
         <f t="shared" si="5"/>
         <v>students[i].name  =  document.getElementById('name').value</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" si="6"/>
+        <v>name VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -701,10 +769,10 @@
         <v>dob </v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H5" t="str">
@@ -719,8 +787,12 @@
         <f t="shared" si="5"/>
         <v>students[i].dob  =  document.getElementById('dob').value</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="6"/>
+        <v>dob VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -737,10 +809,10 @@
         <v>gender </v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H6" t="str">
@@ -755,8 +827,12 @@
         <f t="shared" si="5"/>
         <v>students[i].gender  =  document.getElementById('gender').value</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="6"/>
+        <v>gender VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -773,10 +849,10 @@
         <v>admissionDate </v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H7" t="str">
@@ -791,8 +867,12 @@
         <f t="shared" si="5"/>
         <v>students[i].admissionDate  =  document.getElementById('admissionDate').value</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="6"/>
+        <v>admissionDate VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -809,10 +889,10 @@
         <v>admissionType </v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H8" t="str">
@@ -827,8 +907,12 @@
         <f t="shared" si="5"/>
         <v>students[i].admissionType  =  document.getElementById('admissionType').value</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" si="6"/>
+        <v>admissionType VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -845,10 +929,10 @@
         <v>feeCategory </v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H9" t="str">
@@ -863,8 +947,12 @@
         <f t="shared" si="5"/>
         <v>students[i].feeCategory  =  document.getElementById('feeCategory').value</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="6"/>
+        <v>feeCategory VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -881,10 +969,10 @@
         <v>busService </v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H10" t="str">
@@ -899,8 +987,12 @@
         <f t="shared" si="5"/>
         <v>students[i].busService  =  document.getElementById('busService').value</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f t="shared" si="6"/>
+        <v>busService VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -917,10 +1009,10 @@
         <v>hostel </v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H11" t="str">
@@ -935,8 +1027,12 @@
         <f t="shared" si="5"/>
         <v>students[i].hostel  =  document.getElementById('hostel').value</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="6"/>
+        <v>hostel VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -953,10 +1049,10 @@
         <v>contactNo </v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H12" t="str">
@@ -971,8 +1067,12 @@
         <f t="shared" si="5"/>
         <v>students[i].contactNo  =  document.getElementById('contactNo').value</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f t="shared" si="6"/>
+        <v>contactNo VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -989,10 +1089,10 @@
         <v>address </v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H13" t="str">
@@ -1007,8 +1107,12 @@
         <f t="shared" si="5"/>
         <v>students[i].address  =  document.getElementById('address').value</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f t="shared" si="6"/>
+        <v>address VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1025,10 +1129,10 @@
         <v>landmark </v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="H14" t="str">
@@ -1043,8 +1147,12 @@
         <f t="shared" si="5"/>
         <v>students[i].landmark  =  document.getElementById('landmark').value</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f t="shared" si="6"/>
+        <v>landmark VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1061,10 +1169,10 @@
         <v>place </v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="H15" t="str">
@@ -1079,8 +1187,12 @@
         <f t="shared" si="5"/>
         <v>students[i].place  =  document.getElementById('place').value</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f t="shared" si="6"/>
+        <v>place VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1097,10 +1209,10 @@
         <v>district </v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="H16" t="str">
@@ -1115,8 +1227,12 @@
         <f t="shared" si="5"/>
         <v>students[i].district  =  document.getElementById('district').value</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f t="shared" si="6"/>
+        <v>district VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1133,10 +1249,10 @@
         <v>state </v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="H17" t="str">
@@ -1151,8 +1267,12 @@
         <f t="shared" si="5"/>
         <v>students[i].state  =  document.getElementById('state').value</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="str">
+        <f t="shared" si="6"/>
+        <v>state VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1289,7 @@
         <v>pincode </v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <f>G17+1</f>
@@ -1187,8 +1307,12 @@
         <f t="shared" si="5"/>
         <v>students[i].pincode  =  document.getElementById('pincode').value</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="str">
+        <f t="shared" si="6"/>
+        <v>pincode VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1205,10 +1329,10 @@
         <v>photo </v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="H19" t="str">
@@ -1223,8 +1347,12 @@
         <f t="shared" si="5"/>
         <v>students[i].photo  =  document.getElementById('photo').value</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f t="shared" si="6"/>
+        <v>photo VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1241,10 +1369,10 @@
         <v>RegistrationFees </v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="H20" t="str">
@@ -1259,8 +1387,12 @@
         <f t="shared" si="5"/>
         <v>students[i].RegistrationFees  =  document.getElementById('RegistrationFees').value</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="str">
+        <f>CONCATENATE(D20, " VARCHAR(255)")</f>
+        <v>RegistrationFees  VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1268,259 +1400,337 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" t="s">
-        <v>34</v>
+      <c r="C21" t="str">
+        <f ca="1">D21</f>
+        <v>fatherName</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>data21,</v>
+      </c>
+      <c r="I21" t="str">
+        <f ca="1">CONCATENATE("document.getElementById(","'",D21,"'",").value = students[i].",D21)</f>
+        <v>document.getElementById('fatherName').value = students[i].fatherName</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].fatherName =  document.getElementById('fatherNam').value</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ref="K21:K32" ca="1" si="8">CONCATENATE(D21, " VARCHAR(255)")</f>
+        <v>fatherName VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>TRIM("        fatherContactNo,")</f>
+        <v>        fatherContactNo,</v>
+      </c>
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C32" ca="1" si="9">D22</f>
+        <v>fatherContactNo</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>data22,</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('fatherContactNo').value = students[i].fatherContactNo</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].fatherContactNo =  document.getElementById('fatherContactN').value</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>fatherContactNo VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>fatherPhoto</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>data23,</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('fatherPhoto').value = students[i].fatherPhoto</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].fatherPhoto =  document.getElementById('fatherPhot').value</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>fatherPhoto VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v>data21,</v>
-      </c>
-      <c r="I21" t="str">
-        <f>CONCATENATE("document.getElementById(","'",D21,"'",").value = students[i].",D21)</f>
-        <v>document.getElementById('fatherName').value = students[i].fatherName</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].fatherName =  document.getElementById('fatherNam').value</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="e">
+      <c r="B24" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>motherName</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>data24,</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('motherName').value = students[i].motherName</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].motherName =  document.getElementById('motherNam').value</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>motherName VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="3"/>
-        <v>data22,</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('fatherContactNo').value = students[i].fatherContactNo</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].fatherContactNo =  document.getElementById('fatherContactN').value</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="e">
+      <c r="B25" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>motherContactNo</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>data25,</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('motherContactNo').value = students[i].motherContactNo</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].motherContactNo =  document.getElementById('motherContactN').value</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>motherContactNo VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v>data23,</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('fatherPhoto').value = students[i].fatherPhoto</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].fatherPhoto =  document.getElementById('fatherPhot').value</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="e">
+      <c r="B26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>motherPhoto</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>data26,</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('motherPhoto').value = students[i].motherPhoto</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].motherPhoto =  document.getElementById('motherPhot').value</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>motherPhoto VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="3"/>
-        <v>data24,</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('motherName').value = students[i].motherName</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].motherName =  document.getElementById('motherNam').value</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="e">
+      <c r="B27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>parentAddress</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>data27,</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('parentAddress').value = students[i].parentAddress</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].parentAddress =  document.getElementById('parentAddres').value</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>parentAddress VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="3"/>
-        <v>data25,</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('motherContactNo').value = students[i].motherContactNo</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].motherContactNo =  document.getElementById('motherContactN').value</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="e">
+      <c r="B28" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>parentLandmark</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>data28,</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('parentLandmark').value = students[i].parentLandmark</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].parentLandmark =  document.getElementById('parentLandmar').value</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>parentLandmark VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="3"/>
-        <v>data26,</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('motherPhoto').value = students[i].motherPhoto</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].motherPhoto =  document.getElementById('motherPhot').value</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="e">
+      <c r="B29" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="3"/>
-        <v>data27,</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('parentAddress').value = students[i].parentAddress</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].parentAddress =  document.getElementById('parentAddres').value</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="3"/>
-        <v>data28,</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('parentLandmark').value = students[i].parentLandmark</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].parentLandmark =  document.getElementById('parentLandmar').value</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>parentPlace</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <f>G28+1</f>
@@ -1531,105 +1741,397 @@
         <v>data29,</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>document.getElementById('parentPlace').value = students[i].parentPlace</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>students[i].parentPlace =  document.getElementById('parentPlac').value</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>parentPlace VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>parentDistrict</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>data30,</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('parentDistrict').value = students[i].parentDistrict</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].parentDistrict =  document.getElementById('parentDistric').value</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>parentDistrict VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B31" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>parentState</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>data31,</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>document.getElementById('parentState').value = students[i].parentState</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].parentState =  document.getElementById('parentStat').value</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>parentState VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>parentPincode</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>registrationNo </v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>data32,</v>
+      </c>
+      <c r="I32" t="str">
+        <f ca="1">CONCATENATE("document.getElementById(","'",D32,"'",").value = students[i].",D32)</f>
+        <v>document.getElementById('parentPincode').value = students[i].parentPincode</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>students[i].parentPincode =  document.getElementById('parentPincod').value</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>parentPincode VARCHAR(255)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="str">
+        <f>CONCATENATE("'$student-&gt;",A35,"',")</f>
+        <v>'$student-&gt;registrationNo',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v>data30,</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('parentDistrict').value = students[i].parentDistrict</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].parentDistrict =  document.getElementById('parentDistric').value</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B36" t="str">
+        <f t="shared" ref="B36:B63" si="10">CONCATENATE("'$student-&gt;",A36,"',")</f>
+        <v>'$student-&gt;category',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
-        <v>data31,</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="4"/>
-        <v>document.getElementById('parentState').value = students[i].parentState</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].parentState =  document.getElementById('parentStat').value</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;division',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;name',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;dob',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;gender',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;admissionDate',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;admissionType',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;feeCategory',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;busService',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;hostel',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;contactNo',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;address',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;landmark',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;place',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;district',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;state',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;pincode',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;registrationFees',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
+      <c r="B54" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;fatherName',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;fatherContactNo',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;motherName',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;motherContactNo',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;parentAddress',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;parentLandmark',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;parentPlace',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;parentDistrict',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;parentState',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="3"/>
-        <v>data32,</v>
-      </c>
-      <c r="I32" t="str">
-        <f>CONCATENATE("document.getElementById(","'",D32,"'",").value = students[i].",D32)</f>
-        <v>document.getElementById('parentPincode').value = students[i].parentPincode</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="5"/>
-        <v>students[i].parentPincode =  document.getElementById('parentPincod').value</v>
+      <c r="B63" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;parentPincode',</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +2144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <r>
       <t>this</t>
@@ -216,6 +216,45 @@
   </si>
   <si>
     <t>registrationFees</t>
+  </si>
+  <si>
+    <t>studentPhoto</t>
+  </si>
+  <si>
+    <t>studentAadhaarPhoto</t>
+  </si>
+  <si>
+    <t>studentDobPhoto</t>
+  </si>
+  <si>
+    <t>studentOtherDocumentPhoto</t>
+  </si>
+  <si>
+    <t>fatherPhoto</t>
+  </si>
+  <si>
+    <t>fatherAadhaarPhoto</t>
+  </si>
+  <si>
+    <t>fatherOtherDocumentPhoto</t>
+  </si>
+  <si>
+    <t>motherPhoto</t>
+  </si>
+  <si>
+    <t>motherAadhaarPhoto</t>
+  </si>
+  <si>
+    <t>motherOtherDocumentPhoto</t>
+  </si>
+  <si>
+    <t>guardianPhoto</t>
+  </si>
+  <si>
+    <t>guardianAadhaarPhoto</t>
+  </si>
+  <si>
+    <t>guardianOtherDocumentPhoto</t>
   </si>
 </sst>
 </file>
@@ -577,17 +616,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -668,7 +708,7 @@
         <v>students[i].category  =  document.getElementById('category').value</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K32" si="6">CONCATENATE(D2, "VARCHAR(255)")</f>
+        <f t="shared" ref="K2:K19" si="6">CONCATENATE(D2, "VARCHAR(255)")</f>
         <v>category VARCHAR(255)</v>
       </c>
     </row>
@@ -1873,7 +1913,7 @@
         <v>parentPincode VARCHAR(255)</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -1881,17 +1921,25 @@
         <f>CONCATENATE("'$student-&gt;",A35,"',")</f>
         <v>'$student-&gt;registrationNo',</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f>CONCATENATE(A35, " = ","'$student-&gt;",A35,"',")</f>
+        <v>registrationNo = '$student-&gt;registrationNo',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" ref="B36:B63" si="10">CONCATENATE("'$student-&gt;",A36,"',")</f>
+        <f t="shared" ref="B36:B76" si="10">CONCATENATE("'$student-&gt;",A36,"',")</f>
         <v>'$student-&gt;category',</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f t="shared" ref="C36:C63" si="11">CONCATENATE(A36, " = ","'$student-&gt;",A36,"',")</f>
+        <v>category = '$student-&gt;category',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1899,8 +1947,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;division',</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f t="shared" si="11"/>
+        <v>division = '$student-&gt;division',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -1908,8 +1960,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;name',</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f t="shared" si="11"/>
+        <v>name = '$student-&gt;name',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>47</v>
       </c>
@@ -1917,8 +1973,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;dob',</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f t="shared" si="11"/>
+        <v>dob = '$student-&gt;dob',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
@@ -1926,8 +1986,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;gender',</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f t="shared" si="11"/>
+        <v>gender = '$student-&gt;gender',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -1935,8 +1999,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;admissionDate',</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <f t="shared" si="11"/>
+        <v>admissionDate = '$student-&gt;admissionDate',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
@@ -1944,8 +2012,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;admissionType',</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f t="shared" si="11"/>
+        <v>admissionType = '$student-&gt;admissionType',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -1953,8 +2025,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;feeCategory',</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f t="shared" si="11"/>
+        <v>feeCategory = '$student-&gt;feeCategory',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
@@ -1962,8 +2038,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;busService',</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <f t="shared" si="11"/>
+        <v>busService = '$student-&gt;busService',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
@@ -1971,8 +2051,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;hostel',</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="str">
+        <f t="shared" si="11"/>
+        <v>hostel = '$student-&gt;hostel',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
@@ -1980,8 +2064,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;contactNo',</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="str">
+        <f t="shared" si="11"/>
+        <v>contactNo = '$student-&gt;contactNo',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
@@ -1989,8 +2077,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;address',</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="str">
+        <f t="shared" si="11"/>
+        <v>address = '$student-&gt;address',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
@@ -1998,8 +2090,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;landmark',</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="str">
+        <f t="shared" si="11"/>
+        <v>landmark = '$student-&gt;landmark',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>56</v>
       </c>
@@ -2007,8 +2103,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;place',</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f t="shared" si="11"/>
+        <v>place = '$student-&gt;place',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
@@ -2016,8 +2116,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;district',</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <f t="shared" si="11"/>
+        <v>district = '$student-&gt;district',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
@@ -2025,8 +2129,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;state',</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <f t="shared" si="11"/>
+        <v>state = '$student-&gt;state',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
@@ -2034,8 +2142,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;pincode',</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="str">
+        <f t="shared" si="11"/>
+        <v>pincode = '$student-&gt;pincode',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>60</v>
       </c>
@@ -2043,8 +2155,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;registrationFees',</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="str">
+        <f t="shared" si="11"/>
+        <v>registrationFees = '$student-&gt;registrationFees',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>33</v>
       </c>
@@ -2052,8 +2168,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherName',</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f t="shared" si="11"/>
+        <v>fatherName = '$student-&gt;fatherName',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>34</v>
       </c>
@@ -2061,8 +2181,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherContactNo',</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <f t="shared" si="11"/>
+        <v>fatherContactNo = '$student-&gt;fatherContactNo',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
@@ -2070,8 +2194,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherName',</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f t="shared" si="11"/>
+        <v>motherName = '$student-&gt;motherName',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -2079,8 +2207,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherContactNo',</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f t="shared" si="11"/>
+        <v>motherContactNo = '$student-&gt;motherContactNo',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
@@ -2088,8 +2220,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;parentAddress',</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="str">
+        <f t="shared" si="11"/>
+        <v>parentAddress = '$student-&gt;parentAddress',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
@@ -2097,8 +2233,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;parentLandmark',</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="str">
+        <f t="shared" si="11"/>
+        <v>parentLandmark = '$student-&gt;parentLandmark',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>39</v>
       </c>
@@ -2106,8 +2246,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;parentPlace',</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="str">
+        <f t="shared" si="11"/>
+        <v>parentPlace = '$student-&gt;parentPlace',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>40</v>
       </c>
@@ -2115,8 +2259,12 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;parentDistrict',</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="str">
+        <f t="shared" si="11"/>
+        <v>parentDistrict = '$student-&gt;parentDistrict',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>41</v>
       </c>
@@ -2124,14 +2272,139 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;parentState',</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="str">
+        <f t="shared" si="11"/>
+        <v>parentState = '$student-&gt;parentState',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="10"/>
         <v>'$student-&gt;parentPincode',</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="11"/>
+        <v>parentPincode = '$student-&gt;parentPincode',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;studentPhoto',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;studentAadhaarPhoto',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;studentDobPhoto',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;studentOtherDocumentPhoto',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;fatherPhoto',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;fatherAadhaarPhoto',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;fatherOtherDocumentPhoto',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;motherPhoto',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;motherAadhaarPhoto',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;motherOtherDocumentPhoto',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;guardianPhoto',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;guardianAadhaarPhoto',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="10"/>
+        <v>'$student-&gt;guardianOtherDocumentPhoto',</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -618,16 +618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="E53" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="99.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -1913,7 +1913,7 @@
         <v>parentPincode VARCHAR(255)</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -1925,8 +1925,16 @@
         <f>CONCATENATE(A35, " = ","'$student-&gt;",A35,"',")</f>
         <v>registrationNo = '$student-&gt;registrationNo',</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="str">
+        <f>CONCATENATE("student.", A35, " = document.getElementById('", A35, "').value;")</f>
+        <v>student.registrationNo = document.getElementById('registrationNo').value;</v>
+      </c>
+      <c r="E35" t="str">
+        <f>CONCATENATE("document.getElementById('", A35, "').value = student.", A35, ";")</f>
+        <v>document.getElementById('registrationNo').value = student.registrationNo;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +1946,16 @@
         <f t="shared" ref="C36:C63" si="11">CONCATENATE(A36, " = ","'$student-&gt;",A36,"',")</f>
         <v>category = '$student-&gt;category',</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f t="shared" ref="D36:D76" si="12">CONCATENATE("student.", A36, " = document.getElementById('", A36, "').value;")</f>
+        <v>student.category = document.getElementById('category').value;</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ref="E36:E76" si="13">CONCATENATE("document.getElementById('", A36, "').value = student.", A36, ";")</f>
+        <v>document.getElementById('category').value = student.category;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1951,8 +1967,16 @@
         <f t="shared" si="11"/>
         <v>division = '$student-&gt;division',</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f t="shared" si="12"/>
+        <v>student.division = document.getElementById('division').value;</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('division').value = student.division;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -1964,8 +1988,16 @@
         <f t="shared" si="11"/>
         <v>name = '$student-&gt;name',</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" si="12"/>
+        <v>student.name = document.getElementById('name').value;</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('name').value = student.name;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>47</v>
       </c>
@@ -1977,8 +2009,16 @@
         <f t="shared" si="11"/>
         <v>dob = '$student-&gt;dob',</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="12"/>
+        <v>student.dob = document.getElementById('dob').value;</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('dob').value = student.dob;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
@@ -1990,8 +2030,16 @@
         <f t="shared" si="11"/>
         <v>gender = '$student-&gt;gender',</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="12"/>
+        <v>student.gender = document.getElementById('gender').value;</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('gender').value = student.gender;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -2003,8 +2051,16 @@
         <f t="shared" si="11"/>
         <v>admissionDate = '$student-&gt;admissionDate',</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="12"/>
+        <v>student.admissionDate = document.getElementById('admissionDate').value;</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('admissionDate').value = student.admissionDate;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
@@ -2016,8 +2072,16 @@
         <f t="shared" si="11"/>
         <v>admissionType = '$student-&gt;admissionType',</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" si="12"/>
+        <v>student.admissionType = document.getElementById('admissionType').value;</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('admissionType').value = student.admissionType;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -2029,8 +2093,16 @@
         <f t="shared" si="11"/>
         <v>feeCategory = '$student-&gt;feeCategory',</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="12"/>
+        <v>student.feeCategory = document.getElementById('feeCategory').value;</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('feeCategory').value = student.feeCategory;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
@@ -2042,8 +2114,16 @@
         <f t="shared" si="11"/>
         <v>busService = '$student-&gt;busService',</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="12"/>
+        <v>student.busService = document.getElementById('busService').value;</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('busService').value = student.busService;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
@@ -2055,8 +2135,16 @@
         <f t="shared" si="11"/>
         <v>hostel = '$student-&gt;hostel',</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="12"/>
+        <v>student.hostel = document.getElementById('hostel').value;</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('hostel').value = student.hostel;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
@@ -2068,8 +2156,16 @@
         <f t="shared" si="11"/>
         <v>contactNo = '$student-&gt;contactNo',</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="12"/>
+        <v>student.contactNo = document.getElementById('contactNo').value;</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('contactNo').value = student.contactNo;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
@@ -2081,8 +2177,16 @@
         <f t="shared" si="11"/>
         <v>address = '$student-&gt;address',</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="12"/>
+        <v>student.address = document.getElementById('address').value;</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('address').value = student.address;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
@@ -2094,8 +2198,16 @@
         <f t="shared" si="11"/>
         <v>landmark = '$student-&gt;landmark',</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="str">
+        <f t="shared" si="12"/>
+        <v>student.landmark = document.getElementById('landmark').value;</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('landmark').value = student.landmark;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>56</v>
       </c>
@@ -2107,8 +2219,16 @@
         <f t="shared" si="11"/>
         <v>place = '$student-&gt;place',</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="12"/>
+        <v>student.place = document.getElementById('place').value;</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('place').value = student.place;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
@@ -2120,8 +2240,16 @@
         <f t="shared" si="11"/>
         <v>district = '$student-&gt;district',</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="12"/>
+        <v>student.district = document.getElementById('district').value;</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('district').value = student.district;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
@@ -2133,8 +2261,16 @@
         <f t="shared" si="11"/>
         <v>state = '$student-&gt;state',</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="12"/>
+        <v>student.state = document.getElementById('state').value;</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('state').value = student.state;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
@@ -2146,8 +2282,16 @@
         <f t="shared" si="11"/>
         <v>pincode = '$student-&gt;pincode',</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="12"/>
+        <v>student.pincode = document.getElementById('pincode').value;</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('pincode').value = student.pincode;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>60</v>
       </c>
@@ -2159,8 +2303,16 @@
         <f t="shared" si="11"/>
         <v>registrationFees = '$student-&gt;registrationFees',</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="12"/>
+        <v>student.registrationFees = document.getElementById('registrationFees').value;</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('registrationFees').value = student.registrationFees;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>33</v>
       </c>
@@ -2172,8 +2324,16 @@
         <f t="shared" si="11"/>
         <v>fatherName = '$student-&gt;fatherName',</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="str">
+        <f t="shared" si="12"/>
+        <v>student.fatherName = document.getElementById('fatherName').value;</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('fatherName').value = student.fatherName;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>34</v>
       </c>
@@ -2185,8 +2345,16 @@
         <f t="shared" si="11"/>
         <v>fatherContactNo = '$student-&gt;fatherContactNo',</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="12"/>
+        <v>student.fatherContactNo = document.getElementById('fatherContactNo').value;</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('fatherContactNo').value = student.fatherContactNo;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
@@ -2198,8 +2366,16 @@
         <f t="shared" si="11"/>
         <v>motherName = '$student-&gt;motherName',</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="str">
+        <f t="shared" si="12"/>
+        <v>student.motherName = document.getElementById('motherName').value;</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('motherName').value = student.motherName;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -2211,8 +2387,16 @@
         <f t="shared" si="11"/>
         <v>motherContactNo = '$student-&gt;motherContactNo',</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="12"/>
+        <v>student.motherContactNo = document.getElementById('motherContactNo').value;</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('motherContactNo').value = student.motherContactNo;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
@@ -2224,8 +2408,16 @@
         <f t="shared" si="11"/>
         <v>parentAddress = '$student-&gt;parentAddress',</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="12"/>
+        <v>student.parentAddress = document.getElementById('parentAddress').value;</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('parentAddress').value = student.parentAddress;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
@@ -2237,8 +2429,16 @@
         <f t="shared" si="11"/>
         <v>parentLandmark = '$student-&gt;parentLandmark',</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="12"/>
+        <v>student.parentLandmark = document.getElementById('parentLandmark').value;</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('parentLandmark').value = student.parentLandmark;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>39</v>
       </c>
@@ -2250,8 +2450,16 @@
         <f t="shared" si="11"/>
         <v>parentPlace = '$student-&gt;parentPlace',</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="str">
+        <f t="shared" si="12"/>
+        <v>student.parentPlace = document.getElementById('parentPlace').value;</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('parentPlace').value = student.parentPlace;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>40</v>
       </c>
@@ -2263,8 +2471,16 @@
         <f t="shared" si="11"/>
         <v>parentDistrict = '$student-&gt;parentDistrict',</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="12"/>
+        <v>student.parentDistrict = document.getElementById('parentDistrict').value;</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('parentDistrict').value = student.parentDistrict;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>41</v>
       </c>
@@ -2276,8 +2492,16 @@
         <f t="shared" si="11"/>
         <v>parentState = '$student-&gt;parentState',</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="12"/>
+        <v>student.parentState = document.getElementById('parentState').value;</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('parentState').value = student.parentState;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2513,16 @@
         <f t="shared" si="11"/>
         <v>parentPincode = '$student-&gt;parentPincode',</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="12"/>
+        <v>student.parentPincode = document.getElementById('parentPincode').value;</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('parentPincode').value = student.parentPincode;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2298,8 +2530,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentPhoto',</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="12"/>
+        <v>student.studentPhoto = document.getElementById('studentPhoto').value;</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('studentPhoto').value = student.studentPhoto;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
@@ -2307,8 +2547,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentAadhaarPhoto',</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="12"/>
+        <v>student.studentAadhaarPhoto = document.getElementById('studentAadhaarPhoto').value;</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('studentAadhaarPhoto').value = student.studentAadhaarPhoto;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>63</v>
       </c>
@@ -2316,8 +2564,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentDobPhoto',</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="12"/>
+        <v>student.studentDobPhoto = document.getElementById('studentDobPhoto').value;</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('studentDobPhoto').value = student.studentDobPhoto;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>64</v>
       </c>
@@ -2325,8 +2581,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentOtherDocumentPhoto',</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" si="12"/>
+        <v>student.studentOtherDocumentPhoto = document.getElementById('studentOtherDocumentPhoto').value;</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('studentOtherDocumentPhoto').value = student.studentOtherDocumentPhoto;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
@@ -2334,8 +2598,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherPhoto',</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="12"/>
+        <v>student.fatherPhoto = document.getElementById('fatherPhoto').value;</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('fatherPhoto').value = student.fatherPhoto;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>66</v>
       </c>
@@ -2343,8 +2615,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherAadhaarPhoto',</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="12"/>
+        <v>student.fatherAadhaarPhoto = document.getElementById('fatherAadhaarPhoto').value;</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('fatherAadhaarPhoto').value = student.fatherAadhaarPhoto;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>67</v>
       </c>
@@ -2352,8 +2632,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherOtherDocumentPhoto',</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="12"/>
+        <v>student.fatherOtherDocumentPhoto = document.getElementById('fatherOtherDocumentPhoto').value;</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('fatherOtherDocumentPhoto').value = student.fatherOtherDocumentPhoto;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>68</v>
       </c>
@@ -2361,8 +2649,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherPhoto',</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" si="12"/>
+        <v>student.motherPhoto = document.getElementById('motherPhoto').value;</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('motherPhoto').value = student.motherPhoto;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
@@ -2370,8 +2666,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherAadhaarPhoto',</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
+        <f t="shared" si="12"/>
+        <v>student.motherAadhaarPhoto = document.getElementById('motherAadhaarPhoto').value;</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('motherAadhaarPhoto').value = student.motherAadhaarPhoto;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>70</v>
       </c>
@@ -2379,8 +2683,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherOtherDocumentPhoto',</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" t="str">
+        <f t="shared" si="12"/>
+        <v>student.motherOtherDocumentPhoto = document.getElementById('motherOtherDocumentPhoto').value;</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('motherOtherDocumentPhoto').value = student.motherOtherDocumentPhoto;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>71</v>
       </c>
@@ -2388,8 +2700,16 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;guardianPhoto',</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" t="str">
+        <f t="shared" si="12"/>
+        <v>student.guardianPhoto = document.getElementById('guardianPhoto').value;</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('guardianPhoto').value = student.guardianPhoto;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>72</v>
       </c>
@@ -2397,14 +2717,30 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;guardianAadhaarPhoto',</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" t="str">
+        <f t="shared" si="12"/>
+        <v>student.guardianAadhaarPhoto = document.getElementById('guardianAadhaarPhoto').value;</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('guardianAadhaarPhoto').value = student.guardianAadhaarPhoto;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="10"/>
         <v>'$student-&gt;guardianOtherDocumentPhoto',</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="12"/>
+        <v>student.guardianOtherDocumentPhoto = document.getElementById('guardianOtherDocumentPhoto').value;</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById('guardianOtherDocumentPhoto').value = student.guardianOtherDocumentPhoto;</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E53" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1943,7 @@
         <v>'$student-&gt;category',</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:C63" si="11">CONCATENATE(A36, " = ","'$student-&gt;",A36,"',")</f>
+        <f t="shared" ref="C36:C76" si="11">CONCATENATE(A36, " = ","'$student-&gt;",A36,"',")</f>
         <v>category = '$student-&gt;category',</v>
       </c>
       <c r="D36" t="str">
@@ -2530,6 +2530,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentPhoto',</v>
       </c>
+      <c r="C64" t="str">
+        <f t="shared" si="11"/>
+        <v>studentPhoto = '$student-&gt;studentPhoto',</v>
+      </c>
       <c r="D64" t="str">
         <f t="shared" si="12"/>
         <v>student.studentPhoto = document.getElementById('studentPhoto').value;</v>
@@ -2547,6 +2551,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentAadhaarPhoto',</v>
       </c>
+      <c r="C65" t="str">
+        <f t="shared" si="11"/>
+        <v>studentAadhaarPhoto = '$student-&gt;studentAadhaarPhoto',</v>
+      </c>
       <c r="D65" t="str">
         <f t="shared" si="12"/>
         <v>student.studentAadhaarPhoto = document.getElementById('studentAadhaarPhoto').value;</v>
@@ -2564,6 +2572,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentDobPhoto',</v>
       </c>
+      <c r="C66" t="str">
+        <f t="shared" si="11"/>
+        <v>studentDobPhoto = '$student-&gt;studentDobPhoto',</v>
+      </c>
       <c r="D66" t="str">
         <f t="shared" si="12"/>
         <v>student.studentDobPhoto = document.getElementById('studentDobPhoto').value;</v>
@@ -2581,6 +2593,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;studentOtherDocumentPhoto',</v>
       </c>
+      <c r="C67" t="str">
+        <f t="shared" si="11"/>
+        <v>studentOtherDocumentPhoto = '$student-&gt;studentOtherDocumentPhoto',</v>
+      </c>
       <c r="D67" t="str">
         <f t="shared" si="12"/>
         <v>student.studentOtherDocumentPhoto = document.getElementById('studentOtherDocumentPhoto').value;</v>
@@ -2598,6 +2614,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherPhoto',</v>
       </c>
+      <c r="C68" t="str">
+        <f t="shared" si="11"/>
+        <v>fatherPhoto = '$student-&gt;fatherPhoto',</v>
+      </c>
       <c r="D68" t="str">
         <f t="shared" si="12"/>
         <v>student.fatherPhoto = document.getElementById('fatherPhoto').value;</v>
@@ -2615,6 +2635,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherAadhaarPhoto',</v>
       </c>
+      <c r="C69" t="str">
+        <f t="shared" si="11"/>
+        <v>fatherAadhaarPhoto = '$student-&gt;fatherAadhaarPhoto',</v>
+      </c>
       <c r="D69" t="str">
         <f t="shared" si="12"/>
         <v>student.fatherAadhaarPhoto = document.getElementById('fatherAadhaarPhoto').value;</v>
@@ -2632,6 +2656,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;fatherOtherDocumentPhoto',</v>
       </c>
+      <c r="C70" t="str">
+        <f t="shared" si="11"/>
+        <v>fatherOtherDocumentPhoto = '$student-&gt;fatherOtherDocumentPhoto',</v>
+      </c>
       <c r="D70" t="str">
         <f t="shared" si="12"/>
         <v>student.fatherOtherDocumentPhoto = document.getElementById('fatherOtherDocumentPhoto').value;</v>
@@ -2649,6 +2677,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherPhoto',</v>
       </c>
+      <c r="C71" t="str">
+        <f t="shared" si="11"/>
+        <v>motherPhoto = '$student-&gt;motherPhoto',</v>
+      </c>
       <c r="D71" t="str">
         <f t="shared" si="12"/>
         <v>student.motherPhoto = document.getElementById('motherPhoto').value;</v>
@@ -2666,6 +2698,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherAadhaarPhoto',</v>
       </c>
+      <c r="C72" t="str">
+        <f t="shared" si="11"/>
+        <v>motherAadhaarPhoto = '$student-&gt;motherAadhaarPhoto',</v>
+      </c>
       <c r="D72" t="str">
         <f t="shared" si="12"/>
         <v>student.motherAadhaarPhoto = document.getElementById('motherAadhaarPhoto').value;</v>
@@ -2683,6 +2719,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;motherOtherDocumentPhoto',</v>
       </c>
+      <c r="C73" t="str">
+        <f t="shared" si="11"/>
+        <v>motherOtherDocumentPhoto = '$student-&gt;motherOtherDocumentPhoto',</v>
+      </c>
       <c r="D73" t="str">
         <f t="shared" si="12"/>
         <v>student.motherOtherDocumentPhoto = document.getElementById('motherOtherDocumentPhoto').value;</v>
@@ -2700,6 +2740,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;guardianPhoto',</v>
       </c>
+      <c r="C74" t="str">
+        <f t="shared" si="11"/>
+        <v>guardianPhoto = '$student-&gt;guardianPhoto',</v>
+      </c>
       <c r="D74" t="str">
         <f t="shared" si="12"/>
         <v>student.guardianPhoto = document.getElementById('guardianPhoto').value;</v>
@@ -2717,6 +2761,10 @@
         <f t="shared" si="10"/>
         <v>'$student-&gt;guardianAadhaarPhoto',</v>
       </c>
+      <c r="C75" t="str">
+        <f t="shared" si="11"/>
+        <v>guardianAadhaarPhoto = '$student-&gt;guardianAadhaarPhoto',</v>
+      </c>
       <c r="D75" t="str">
         <f t="shared" si="12"/>
         <v>student.guardianAadhaarPhoto = document.getElementById('guardianAadhaarPhoto').value;</v>
@@ -2733,6 +2781,10 @@
       <c r="B76" t="str">
         <f t="shared" si="10"/>
         <v>'$student-&gt;guardianOtherDocumentPhoto',</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="11"/>
+        <v>guardianOtherDocumentPhoto = '$student-&gt;guardianOtherDocumentPhoto',</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="12"/>
